--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H2">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N2">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O2">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P2">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q2">
-        <v>4.619327367231588</v>
+        <v>140.5851659704556</v>
       </c>
       <c r="R2">
-        <v>4.619327367231588</v>
+        <v>1265.2664937341</v>
       </c>
       <c r="S2">
-        <v>0.02650372474756204</v>
+        <v>0.04831952636054432</v>
       </c>
       <c r="T2">
-        <v>0.02650372474756204</v>
+        <v>0.04831952636054432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H3">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N3">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P3">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q3">
-        <v>2.037205145438216</v>
+        <v>36.50863155531778</v>
       </c>
       <c r="R3">
-        <v>2.037205145438216</v>
+        <v>328.57768399786</v>
       </c>
       <c r="S3">
-        <v>0.01168861181219344</v>
+        <v>0.01254812179256028</v>
       </c>
       <c r="T3">
-        <v>0.01168861181219344</v>
+        <v>0.01254812179256028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H4">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N4">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O4">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P4">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q4">
-        <v>100.9943963212645</v>
+        <v>2612.47112971724</v>
       </c>
       <c r="R4">
-        <v>100.9943963212645</v>
+        <v>23512.24016745516</v>
       </c>
       <c r="S4">
-        <v>0.5794626508034606</v>
+        <v>0.8979138499225554</v>
       </c>
       <c r="T4">
-        <v>0.5794626508034606</v>
+        <v>0.8979138499225554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H5">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N5">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O5">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P5">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q5">
-        <v>0.8459043306875937</v>
+        <v>1.727212861898333</v>
       </c>
       <c r="R5">
-        <v>0.8459043306875937</v>
+        <v>15.544915757085</v>
       </c>
       <c r="S5">
-        <v>0.004853437256331758</v>
+        <v>0.0005936480341624857</v>
       </c>
       <c r="T5">
-        <v>0.004853437256331758</v>
+        <v>0.0005936480341624857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H6">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N6">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P6">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q6">
-        <v>0.3730587849758776</v>
+        <v>0.4485407657156666</v>
       </c>
       <c r="R6">
-        <v>0.3730587849758776</v>
+        <v>4.036866891441</v>
       </c>
       <c r="S6">
-        <v>0.002140451751005958</v>
+        <v>0.0001541647527544378</v>
       </c>
       <c r="T6">
-        <v>0.002140451751005958</v>
+        <v>0.0001541647527544378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H7">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N7">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O7">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P7">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q7">
-        <v>18.49438033540734</v>
+        <v>32.096513920494</v>
       </c>
       <c r="R7">
-        <v>18.49438033540734</v>
+        <v>288.868625284446</v>
       </c>
       <c r="S7">
-        <v>0.106112844320909</v>
+        <v>0.01103166425673112</v>
       </c>
       <c r="T7">
-        <v>0.106112844320909</v>
+        <v>0.01103166425673112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H8">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.982961250116128</v>
+        <v>1.847798333333333</v>
       </c>
       <c r="N8">
-        <v>0.982961250116128</v>
+        <v>5.543395</v>
       </c>
       <c r="O8">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="P8">
-        <v>0.04291024162325165</v>
+        <v>0.05039680725746681</v>
       </c>
       <c r="Q8">
-        <v>2.013583274419352</v>
+        <v>4.316614585457779</v>
       </c>
       <c r="R8">
-        <v>2.013583274419352</v>
+        <v>38.84953126912001</v>
       </c>
       <c r="S8">
-        <v>0.01155307961935784</v>
+        <v>0.001483632862760003</v>
       </c>
       <c r="T8">
-        <v>0.01155307961935784</v>
+        <v>0.001483632862760003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H9">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.43350331277843</v>
+        <v>0.4798556666666667</v>
       </c>
       <c r="N9">
-        <v>0.43350331277843</v>
+        <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="P9">
-        <v>0.01892417620084702</v>
+        <v>0.0130875719001099</v>
       </c>
       <c r="Q9">
-        <v>0.8880258707175923</v>
+        <v>1.120983785016889</v>
       </c>
       <c r="R9">
-        <v>0.8880258707175923</v>
+        <v>10.088854065152</v>
       </c>
       <c r="S9">
-        <v>0.005095112637647622</v>
+        <v>0.0003852853547951805</v>
       </c>
       <c r="T9">
-        <v>0.005095112637647622</v>
+        <v>0.0003852853547951806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H10">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4909163543803</v>
+        <v>34.337334</v>
       </c>
       <c r="N10">
-        <v>21.4909163543803</v>
+        <v>103.012002</v>
       </c>
       <c r="O10">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="P10">
-        <v>0.9381655821759014</v>
+        <v>0.9365156208424232</v>
       </c>
       <c r="Q10">
-        <v>44.02386128447391</v>
+        <v>80.214942343168</v>
       </c>
       <c r="R10">
-        <v>44.02386128447391</v>
+        <v>721.934481088512</v>
       </c>
       <c r="S10">
-        <v>0.2525900870515317</v>
+        <v>0.02757010666313679</v>
       </c>
       <c r="T10">
-        <v>0.2525900870515317</v>
+        <v>0.02757010666313679</v>
       </c>
     </row>
   </sheetData>
